--- a/FinalProjectSourseSelenium042023/src/test/resources/testdata/DataCustomer.xlsx
+++ b/FinalProjectSourseSelenium042023/src/test/resources/testdata/DataCustomer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/IT - data/Nauthui/FinalProjectSourseSelenium042023/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/IT - data/BaiTap/FinalProjectSourseSelenium042023/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14AED95-B48E-3E43-88F5-4C446D383217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029440EB-C9EF-F84D-841C-2E3076F952BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37260" yWindow="-2840" windowWidth="28040" windowHeight="16000" xr2:uid="{C17A1A8A-D660-874E-B94E-302950CBA795}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>email</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>country1</t>
+  </si>
+  <si>
+    <t>companyB</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Algeria</t>
   </si>
 </sst>
 </file>
@@ -491,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE547AEA-F6A9-F046-BB67-EE143DE627AE}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -575,9 +584,45 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{2DE36569-71BF-FC41-BBEE-39EC7C042E16}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{9A5266A2-ED8F-A640-84E2-BDA3BACDC03E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
